--- a/UAT project.xlsx
+++ b/UAT project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidaya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{288C699C-C197-784E-A32D-AA7B83D14DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9A340-F8FB-0E44-8569-CD3C0410D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{5767FB44-62F0-5847-8639-4019FF0EF457}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{5767FB44-62F0-5847-8639-4019FF0EF457}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;DATA&quot;" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Feature</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Change password</t>
   </si>
   <si>
-    <t>Password change successful</t>
-  </si>
-  <si>
     <t>View store performance charts</t>
   </si>
   <si>
@@ -177,10 +174,7 @@
     <t xml:space="preserve">Count </t>
   </si>
   <si>
-    <t>John kim</t>
-  </si>
-  <si>
-    <t>Jane lee</t>
+    <t xml:space="preserve">Password change action failed — no update confirmed	</t>
   </si>
 </sst>
 </file>
@@ -246,9 +240,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -366,6 +359,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2308-3545-923C-2D973481AF1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -381,6 +379,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2308-3545-923C-2D973481AF1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -546,13 +549,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tester</a:t>
+              <a:t>Severity Bar Chart</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -605,277 +603,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Summary dashboard '!$A$36:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>John kim</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jane lee</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary dashboard '!$B$36:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7CC-FB4F-AC3A-6D055C0EEB9C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1741342207"/>
-        <c:axId val="723459056"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1741342207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="723459056"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="723459056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1741342207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+          <c:dLbls>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Summary dashboard '!$A$19:$A$21</c:f>
@@ -918,8 +703,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1089,239 +875,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Summary dashboard '!$A$19:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary dashboard '!$B$19:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F04-F84D-9379-3EF41A6F9F8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="75"/>
-      </c:doughnutChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1402,86 +955,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2472,1028 +1945,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3566,42 +2017,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11745</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>12185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>499191</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190866</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5FA9C3-B6AD-01D1-BA8E-E32A8903C7B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>819260</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -3630,43 +2045,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27016</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>195933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>488033</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63794</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A78E77-1635-5EF7-3C85-51E6A33DDEE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3992,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0418A-D53E-4648-AE38-CD5C97FFC008}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4006,43 +2385,27 @@
     <col min="5" max="5" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4061,24 +2424,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4097,24 +2444,8 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4133,24 +2464,8 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4169,24 +2484,8 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4205,24 +2504,8 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4241,24 +2524,8 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4277,24 +2544,8 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4313,24 +2564,8 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4344,34 +2579,18 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -4380,34 +2599,18 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -4416,34 +2619,18 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4452,123 +2639,11 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4577,20 +2652,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED16DC24-D8C6-1344-B4C4-F971627CE281}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4610,11 +2685,11 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4642,28 +2717,8 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
